--- a/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="200">
   <si>
     <t>ModuleName</t>
   </si>
@@ -558,6 +558,78 @@
   </si>
   <si>
     <t>93630</t>
+  </si>
+  <si>
+    <t>4545230217</t>
+  </si>
+  <si>
+    <t>3352512068</t>
+  </si>
+  <si>
+    <t>7999933480</t>
+  </si>
+  <si>
+    <t>3118210760</t>
+  </si>
+  <si>
+    <t>1732387014</t>
+  </si>
+  <si>
+    <t>8355479982</t>
+  </si>
+  <si>
+    <t>3820982694</t>
+  </si>
+  <si>
+    <t>9975192256</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-24 03:34:44 PM</t>
+  </si>
+  <si>
+    <t>93948</t>
+  </si>
+  <si>
+    <t>1100451728</t>
+  </si>
+  <si>
+    <t>3723639619</t>
+  </si>
+  <si>
+    <t>6115808565</t>
+  </si>
+  <si>
+    <t>8901130662</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 03:31:04 PM</t>
+  </si>
+  <si>
+    <t>94441</t>
+  </si>
+  <si>
+    <t>9428336107</t>
+  </si>
+  <si>
+    <t>2735621118</t>
+  </si>
+  <si>
+    <t>6005539403</t>
+  </si>
+  <si>
+    <t>7185939750</t>
+  </si>
+  <si>
+    <t>2024-02-16 03:47:47 PM</t>
+  </si>
+  <si>
+    <t>94443</t>
   </si>
 </sst>
 </file>
@@ -6201,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6225,13 +6297,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6270,13 +6342,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6294,7 +6366,7 @@
         <v>172</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6306,7 +6378,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6318,7 +6390,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6580,7 +6652,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6655,7 +6727,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6679,7 +6751,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6691,7 +6763,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6946,7 +7018,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7021,7 +7093,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7045,7 +7117,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7057,7 +7129,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7312,7 +7384,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7387,7 +7459,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7411,7 +7483,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7423,7 +7495,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="215">
   <si>
     <t>ModuleName</t>
   </si>
@@ -630,6 +630,51 @@
   </si>
   <si>
     <t>94443</t>
+  </si>
+  <si>
+    <t>8907358033</t>
+  </si>
+  <si>
+    <t>2628438554</t>
+  </si>
+  <si>
+    <t>2977668794</t>
+  </si>
+  <si>
+    <t>4740612309</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-04-10 04:50:56 PM</t>
+  </si>
+  <si>
+    <t>122105</t>
+  </si>
+  <si>
+    <t>6079928231</t>
+  </si>
+  <si>
+    <t>8238268599</t>
+  </si>
+  <si>
+    <t>2973023394</t>
+  </si>
+  <si>
+    <t>6330167310</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-11 06:45:36 PM</t>
+  </si>
+  <si>
+    <t>122147</t>
   </si>
 </sst>
 </file>
@@ -6273,7 +6318,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6297,13 +6342,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6342,13 +6387,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6366,7 +6411,7 @@
         <v>172</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6378,7 +6423,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6390,7 +6435,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6652,7 +6697,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6727,7 +6772,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6751,7 +6796,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6763,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7018,7 +7063,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7093,7 +7138,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7117,7 +7162,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7129,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7384,7 +7429,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7459,7 +7504,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7483,7 +7528,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7495,7 +7540,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="227">
   <si>
     <t>ModuleName</t>
   </si>
@@ -675,6 +675,42 @@
   </si>
   <si>
     <t>122147</t>
+  </si>
+  <si>
+    <t>4226606796</t>
+  </si>
+  <si>
+    <t>2423129471</t>
+  </si>
+  <si>
+    <t>0196400554</t>
+  </si>
+  <si>
+    <t>8052120916</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5811143068</t>
+  </si>
+  <si>
+    <t>1247389738</t>
+  </si>
+  <si>
+    <t>4663339567</t>
+  </si>
+  <si>
+    <t>5364132399</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>2024-05-31 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>126176</t>
   </si>
 </sst>
 </file>
@@ -6318,7 +6354,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6342,13 +6378,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>205</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6387,13 +6423,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6408,10 +6444,10 @@
         <v>148</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6423,7 +6459,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6435,7 +6471,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6697,7 +6733,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6772,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6796,7 +6832,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6808,7 +6844,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7063,7 +7099,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7138,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7162,7 +7198,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7174,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7429,7 +7465,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7504,7 +7540,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7528,7 +7564,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7540,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="239">
   <si>
     <t>ModuleName</t>
   </si>
@@ -711,6 +711,42 @@
   </si>
   <si>
     <t>126176</t>
+  </si>
+  <si>
+    <t>9840095047</t>
+  </si>
+  <si>
+    <t>9840006441</t>
+  </si>
+  <si>
+    <t>9840099060</t>
+  </si>
+  <si>
+    <t>9840057536</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>2024-07-14 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>136745</t>
+  </si>
+  <si>
+    <t>9840053791</t>
+  </si>
+  <si>
+    <t>9840069791</t>
+  </si>
+  <si>
+    <t>9840032800</t>
+  </si>
+  <si>
+    <t>9840066792</t>
+  </si>
+  <si>
+    <t>136747</t>
   </si>
 </sst>
 </file>
@@ -6354,7 +6390,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6378,13 +6414,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>205</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6423,13 +6459,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6447,7 +6483,7 @@
         <v>219</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6459,7 +6495,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6471,7 +6507,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6733,7 +6769,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6808,7 +6844,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6832,7 +6868,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6844,7 +6880,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7099,7 +7135,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7174,7 +7210,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7198,7 +7234,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7210,7 +7246,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7465,7 +7501,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7540,7 +7576,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7564,7 +7600,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7576,7 +7612,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_SpecificDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="293">
   <si>
     <t>ModuleName</t>
   </si>
@@ -747,6 +747,168 @@
   </si>
   <si>
     <t>136747</t>
+  </si>
+  <si>
+    <t>9840004019</t>
+  </si>
+  <si>
+    <t>9840064414</t>
+  </si>
+  <si>
+    <t>9840011034</t>
+  </si>
+  <si>
+    <t>9840014874</t>
+  </si>
+  <si>
+    <t>9840047688</t>
+  </si>
+  <si>
+    <t>9840095294</t>
+  </si>
+  <si>
+    <t>9840089541</t>
+  </si>
+  <si>
+    <t>9840069539</t>
+  </si>
+  <si>
+    <t>9840044302</t>
+  </si>
+  <si>
+    <t>9840041770</t>
+  </si>
+  <si>
+    <t>9840065400</t>
+  </si>
+  <si>
+    <t>9840053116</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>05-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158766</t>
+  </si>
+  <si>
+    <t>9840088335</t>
+  </si>
+  <si>
+    <t>9840096973</t>
+  </si>
+  <si>
+    <t>9840073122</t>
+  </si>
+  <si>
+    <t>9840018014</t>
+  </si>
+  <si>
+    <t>158772</t>
+  </si>
+  <si>
+    <t>9840028650</t>
+  </si>
+  <si>
+    <t>9840004003</t>
+  </si>
+  <si>
+    <t>9840037896</t>
+  </si>
+  <si>
+    <t>9840032889</t>
+  </si>
+  <si>
+    <t>9840027667</t>
+  </si>
+  <si>
+    <t>9840063425</t>
+  </si>
+  <si>
+    <t>9840042251</t>
+  </si>
+  <si>
+    <t>9840084009</t>
+  </si>
+  <si>
+    <t>158774</t>
+  </si>
+  <si>
+    <t>9840052192</t>
+  </si>
+  <si>
+    <t>9840050378</t>
+  </si>
+  <si>
+    <t>9840097759</t>
+  </si>
+  <si>
+    <t>9840044280</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>9840003391</t>
+  </si>
+  <si>
+    <t>9840073623</t>
+  </si>
+  <si>
+    <t>9840093684</t>
+  </si>
+  <si>
+    <t>9840044127</t>
+  </si>
+  <si>
+    <t>158784</t>
+  </si>
+  <si>
+    <t>9840036070</t>
+  </si>
+  <si>
+    <t>9840011919</t>
+  </si>
+  <si>
+    <t>9840048884</t>
+  </si>
+  <si>
+    <t>9840036438</t>
+  </si>
+  <si>
+    <t>158786</t>
+  </si>
+  <si>
+    <t>9840075500</t>
+  </si>
+  <si>
+    <t>9840089008</t>
+  </si>
+  <si>
+    <t>9840028209</t>
+  </si>
+  <si>
+    <t>9840029192</t>
+  </si>
+  <si>
+    <t>158788</t>
+  </si>
+  <si>
+    <t>9840068426</t>
+  </si>
+  <si>
+    <t>9840015072</t>
+  </si>
+  <si>
+    <t>9840055110</t>
+  </si>
+  <si>
+    <t>9840056813</t>
+  </si>
+  <si>
+    <t>158790</t>
   </si>
 </sst>
 </file>
@@ -6390,7 +6552,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6414,13 +6576,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>205</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6459,13 +6621,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6483,7 +6645,7 @@
         <v>219</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6495,7 +6657,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6507,7 +6669,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6769,7 +6931,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6844,7 +7006,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6868,7 +7030,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6880,7 +7042,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7135,7 +7297,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7210,7 +7372,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7234,7 +7396,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7246,7 +7408,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7501,7 +7663,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7576,7 +7738,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7600,7 +7762,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7612,7 +7774,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>
